--- a/results.xlsx
+++ b/results.xlsx
@@ -333,7 +333,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>393.4736842105263</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>310.15789473684208</c:v>
@@ -685,7 +685,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.2966827180310325</c:v>
+                  <c:v>3.5932351654760168</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.2375699983030715</c:v>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>945</v>
+        <v>388</v>
       </c>
       <c r="C30">
         <v>585</v>
@@ -3133,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="C31">
         <v>325</v>
@@ -3162,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C32">
         <v>316</v>
@@ -3191,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C33">
         <v>302</v>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C34">
         <v>312</v>
@@ -3249,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="B35">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C35">
         <v>325</v>
@@ -3278,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C36">
         <v>308</v>
@@ -3307,7 +3307,7 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="C37">
         <v>308</v>
@@ -3336,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C38">
         <v>314</v>
@@ -3365,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C39">
         <v>306</v>
@@ -3394,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="C40">
         <v>304</v>
@@ -3423,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="C41">
         <v>313</v>
@@ -3452,7 +3452,7 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="C42">
         <v>307</v>
@@ -3481,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="B43">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C43">
         <v>314</v>
@@ -3510,7 +3510,7 @@
         <v>15</v>
       </c>
       <c r="B44">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C44">
         <v>307</v>
@@ -3539,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="C45">
         <v>305</v>
@@ -3568,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="B46">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C46">
         <v>305</v>
@@ -3597,7 +3597,7 @@
         <v>18</v>
       </c>
       <c r="B47">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C47">
         <v>302</v>
@@ -3626,7 +3626,7 @@
         <v>19</v>
       </c>
       <c r="B48">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="C48">
         <v>308</v>
@@ -3655,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="B49">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="C49">
         <v>312</v>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B50">
         <f>AVERAGE(B31:B49)</f>
-        <v>393.4736842105263</v>
+        <v>361</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:L50" si="1">AVERAGE(C31:C49)</f>
@@ -3731,7 +3731,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <f>B25/B50</f>
-        <v>3.2966827180310325</v>
+        <v>3.5932351654760168</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53:L53" si="2">C25/C50</f>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>i7-8550U</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>AVX2 Supported</t>
+  </si>
+  <si>
+    <t>C FHD</t>
+  </si>
+  <si>
+    <t>ASM FHD</t>
+  </si>
+  <si>
+    <t>C 7x24</t>
+  </si>
+  <si>
+    <t>ASM 7x24</t>
+  </si>
+  <si>
+    <t>C 20k</t>
+  </si>
+  <si>
+    <t>ASM 20k</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>10800p</t>
+  </si>
+  <si>
+    <t>FHD</t>
   </si>
 </sst>
 </file>
@@ -109,6 +139,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> czasu dla różnej ilości wątków</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -172,10 +232,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$4:$L$4</c:f>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -183,30 +243,18 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -214,42 +262,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$25:$L$25</c:f>
+              <c:f>Arkusz1!$B$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1297.1578947368421</c:v>
+                  <c:v>1092.3684210526317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>694</c:v>
+                  <c:v>547.42105263157896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>518.63157894736844</c:v>
+                  <c:v>346.4736842105263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406.4736842105263</c:v>
+                  <c:v>280.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>355.10526315789474</c:v>
+                  <c:v>286.05263157894734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>343.42105263157896</c:v>
+                  <c:v>285.15789473684208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>354.84210526315792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>336.73684210526318</c:v>
+                  <c:v>281.05263157894734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,10 +322,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$4:$L$4</c:f>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -297,30 +333,18 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -328,42 +352,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$50:$L$50</c:f>
+              <c:f>Arkusz1!$B$50:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>361</c:v>
+                  <c:v>312.15789473684208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310.15789473684208</c:v>
+                  <c:v>261.68421052631578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>295.68421052631578</c:v>
+                  <c:v>257.84210526315792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306.68421052631578</c:v>
+                  <c:v>261.5263157894737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.21052631578948</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>304.89473684210526</c:v>
+                  <c:v>266.89473684210526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309.68421052631578</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>324.36842105263156</c:v>
+                  <c:v>267.5263157894737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,6 +406,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -442,6 +510,8 @@
         <c:axId val="536506879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -459,6 +529,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -493,6 +624,7 @@
         <c:crossAx val="536500639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="220"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -586,6 +718,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Prszyspieszenie biblioteki</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> ASM względem C</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -638,10 +800,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$29:$L$29</c:f>
+              <c:f>Arkusz1!$B$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -649,30 +811,18 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
@@ -680,42 +830,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$53:$L$53</c:f>
+              <c:f>Arkusz1!$B$53:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.5932351654760168</c:v>
+                  <c:v>3.4994098802900022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2375699983030715</c:v>
+                  <c:v>2.0919147224456962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7540049839800642</c:v>
+                  <c:v>1.3437436211471727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.325381843143985</c:v>
+                  <c:v>1.0720466894747434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2110931610123856</c:v>
+                  <c:v>1.0876525915549329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1263593992749872</c:v>
+                  <c:v>1.0684283178860186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1458191706322232</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0381307804640598</c:v>
+                  <c:v>1.0505606925044264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,6 +932,8 @@
         <c:axId val="722226096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -845,6 +985,7 @@
         <c:crossAx val="722225680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -854,6 +995,1928 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C FHD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$79:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6315789473684212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC5E-4FB3-A446-F5A830E94B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASM FHD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$104:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.2631578947368425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0526315789473681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC5E-4FB3-A446-F5A830E94B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="719256415"/>
+        <c:axId val="719255999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="719256415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719255999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719255999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719256415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C 7x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$129:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>189.63157894736841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285.05263157894734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BD-4AF5-BD4B-519D2EC5B1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASM 7x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$154:$C$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340.05263157894734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4BD-4AF5-BD4B-519D2EC5B1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="719265567"/>
+        <c:axId val="719263071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="719265567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719263071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719263071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719265567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie czasu dla różnej ilości wątków</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$158</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C 20k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$180:$H$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1432.4736842105262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375.15789473684208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.84210526315792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5211-4486-97E4-1C8C43190CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$183</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASM 20k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$205:$H$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>403.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.73684210526318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.94736842105266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342.5263157894737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350.36842105263156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350.21052631578948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5211-4486-97E4-1C8C43190CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C 16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$25:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1092.3684210526317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346.4736842105263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.36842105263156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>286.05263157894734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>285.15789473684208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>281.05263157894734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A56-4F84-B151-38EA670AA28F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASM 16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>312.15789473684208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.5263157894737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.5263157894737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A56-4F84-B151-38EA670AA28F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="783897872"/>
+        <c:axId val="783899952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783897872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783899952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783899952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783897872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="290"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Stosunek czasu ASM względem C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$208</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10800p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$184:$H$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$208:$H$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5508153946510106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1156630217156938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3259582424431287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0720409084072791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1405961893054701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0914826498422714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0788999098286745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE78-41D8-8699-CF147D07F510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$53:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4994098802900022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0919147224456962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3437436211471727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0720466894747434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0876525915549329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0684283178860186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0505606925044264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-016E-443E-8E79-00B9F729C612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FHD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$92:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9062500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-016E-443E-8E79-00B9F729C612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="788333088"/>
+        <c:axId val="788326016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="788333088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788326016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="788326016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788333088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.30000000000000004"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -971,6 +3034,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1977,17 +4200,2029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -2011,13 +6246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2034,6 +6269,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397136</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>120800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96818</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>120800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2305,15 +6660,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2323,8 +6682,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2340,723 +6702,575 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>32</v>
-      </c>
-      <c r="L4">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2033</v>
+        <v>1137</v>
       </c>
       <c r="C5">
-        <v>1054</v>
+        <v>542</v>
       </c>
       <c r="D5">
-        <v>788</v>
+        <v>334</v>
       </c>
       <c r="E5">
-        <v>609</v>
+        <v>290</v>
       </c>
       <c r="F5">
-        <v>525</v>
+        <v>286</v>
       </c>
       <c r="G5">
-        <v>526</v>
+        <v>363</v>
       </c>
       <c r="H5">
-        <v>479</v>
-      </c>
-      <c r="I5">
-        <v>493</v>
-      </c>
-      <c r="L5">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1339</v>
+        <v>1111</v>
       </c>
       <c r="C6">
-        <v>728</v>
+        <v>548</v>
       </c>
       <c r="D6">
-        <v>536</v>
+        <v>346</v>
       </c>
       <c r="E6">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="F6">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="G6">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="H6">
-        <v>357</v>
-      </c>
-      <c r="I6">
-        <v>346</v>
-      </c>
-      <c r="L6">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1304</v>
+        <v>1104</v>
       </c>
       <c r="C7">
-        <v>703</v>
+        <v>543</v>
       </c>
       <c r="D7">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="E7">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="F7">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="G7">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H7">
-        <v>336</v>
-      </c>
-      <c r="I7">
-        <v>334</v>
-      </c>
-      <c r="L7">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1362</v>
+        <v>1115</v>
       </c>
       <c r="C8">
-        <v>675</v>
+        <v>545</v>
       </c>
       <c r="D8">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="E8">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="F8">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="G8">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="H8">
-        <v>332</v>
-      </c>
-      <c r="I8">
-        <v>329</v>
-      </c>
-      <c r="L8">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1336</v>
+        <v>1120</v>
       </c>
       <c r="C9">
-        <v>698</v>
+        <v>582</v>
       </c>
       <c r="D9">
-        <v>543</v>
+        <v>378</v>
       </c>
       <c r="E9">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="F9">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="G9">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="H9">
-        <v>349</v>
-      </c>
-      <c r="I9">
-        <v>356</v>
-      </c>
-      <c r="L9">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1384</v>
+        <v>1104</v>
       </c>
       <c r="C10">
-        <v>684</v>
+        <v>561</v>
       </c>
       <c r="D10">
-        <v>504</v>
+        <v>398</v>
       </c>
       <c r="E10">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="F10">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="G10">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="H10">
-        <v>375</v>
-      </c>
-      <c r="I10">
-        <v>349</v>
-      </c>
-      <c r="L10">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1464</v>
+        <v>1079</v>
       </c>
       <c r="C11">
-        <v>723</v>
+        <v>571</v>
       </c>
       <c r="D11">
-        <v>514</v>
+        <v>369</v>
       </c>
       <c r="E11">
-        <v>405</v>
+        <v>281</v>
       </c>
       <c r="F11">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="G11">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="H11">
-        <v>343</v>
-      </c>
-      <c r="I11">
-        <v>370</v>
-      </c>
-      <c r="L11">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1275</v>
+        <v>1085</v>
       </c>
       <c r="C12">
-        <v>679</v>
+        <v>544</v>
       </c>
       <c r="D12">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="E12">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="F12">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G12">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="H12">
-        <v>357</v>
-      </c>
-      <c r="I12">
-        <v>368</v>
-      </c>
-      <c r="L12">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1268</v>
+        <v>1109</v>
       </c>
       <c r="C13">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="D13">
-        <v>497</v>
+        <v>344</v>
       </c>
       <c r="E13">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="F13">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G13">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="H13">
-        <v>366</v>
-      </c>
-      <c r="I13">
-        <v>371</v>
-      </c>
-      <c r="L13">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1276</v>
+        <v>1126</v>
       </c>
       <c r="C14">
-        <v>678</v>
+        <v>550</v>
       </c>
       <c r="D14">
-        <v>518</v>
+        <v>310</v>
       </c>
       <c r="E14">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="F14">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="G14">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H14">
-        <v>364</v>
-      </c>
-      <c r="I14">
-        <v>396</v>
-      </c>
-      <c r="L14">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>1286</v>
+        <v>1136</v>
       </c>
       <c r="C15">
-        <v>691</v>
+        <v>534</v>
       </c>
       <c r="D15">
-        <v>516</v>
+        <v>321</v>
       </c>
       <c r="E15">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="F15">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="G15">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="H15">
-        <v>378</v>
-      </c>
-      <c r="I15">
-        <v>430</v>
-      </c>
-      <c r="L15">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>1259</v>
+        <v>1077</v>
       </c>
       <c r="C16">
-        <v>685</v>
+        <v>543</v>
       </c>
       <c r="D16">
-        <v>561</v>
+        <v>402</v>
       </c>
       <c r="E16">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="F16">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="G16">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="H16">
-        <v>364</v>
-      </c>
-      <c r="I16">
-        <v>345</v>
-      </c>
-      <c r="L16">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>1266</v>
+        <v>1072</v>
       </c>
       <c r="C17">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="D17">
-        <v>526</v>
+        <v>402</v>
       </c>
       <c r="E17">
-        <v>406</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="G17">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="H17">
-        <v>335</v>
-      </c>
-      <c r="I17">
-        <v>350</v>
-      </c>
-      <c r="L17">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>1276</v>
+        <v>1072</v>
       </c>
       <c r="C18">
-        <v>700</v>
+        <v>546</v>
       </c>
       <c r="D18">
-        <v>523</v>
+        <v>309</v>
       </c>
       <c r="E18">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="G18">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="H18">
-        <v>333</v>
-      </c>
-      <c r="I18">
-        <v>352</v>
-      </c>
-      <c r="L18">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>1250</v>
+        <v>1070</v>
       </c>
       <c r="C19">
-        <v>702</v>
+        <v>551</v>
       </c>
       <c r="D19">
-        <v>509</v>
+        <v>311</v>
       </c>
       <c r="E19">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="F19">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="G19">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="H19">
-        <v>330</v>
-      </c>
-      <c r="I19">
-        <v>327</v>
-      </c>
-      <c r="L19">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>1237</v>
+        <v>1079</v>
       </c>
       <c r="C20">
-        <v>687</v>
+        <v>539</v>
       </c>
       <c r="D20">
-        <v>514</v>
+        <v>402</v>
       </c>
       <c r="E20">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="F20">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="G20">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="H20">
-        <v>334</v>
-      </c>
-      <c r="I20">
-        <v>342</v>
-      </c>
-      <c r="L20">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>1241</v>
+        <v>1069</v>
       </c>
       <c r="C21">
-        <v>693</v>
+        <v>536</v>
       </c>
       <c r="D21">
-        <v>510</v>
+        <v>313</v>
       </c>
       <c r="E21">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="F21">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="G21">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="H21">
-        <v>329</v>
-      </c>
-      <c r="I21">
-        <v>341</v>
-      </c>
-      <c r="L21">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>1258</v>
+        <v>1078</v>
       </c>
       <c r="C22">
-        <v>682</v>
+        <v>545</v>
       </c>
       <c r="D22">
-        <v>509</v>
+        <v>309</v>
       </c>
       <c r="E22">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="F22">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="G22">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="H22">
-        <v>339</v>
-      </c>
-      <c r="I22">
-        <v>344</v>
-      </c>
-      <c r="L22">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23">
-        <v>1285</v>
+        <v>1069</v>
       </c>
       <c r="C23">
-        <v>701</v>
+        <v>534</v>
       </c>
       <c r="D23">
-        <v>515</v>
+        <v>312</v>
       </c>
       <c r="E23">
-        <v>421</v>
+        <v>270</v>
       </c>
       <c r="F23">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="G23">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H23">
-        <v>331</v>
-      </c>
-      <c r="I23">
-        <v>345</v>
-      </c>
-      <c r="L23">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="C24">
-        <v>703</v>
+        <v>543</v>
       </c>
       <c r="D24">
-        <v>513</v>
+        <v>310</v>
       </c>
       <c r="E24">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="F24">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="G24">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="H24">
-        <v>341</v>
-      </c>
-      <c r="I24">
-        <v>347</v>
-      </c>
-      <c r="L24">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
-        <f>AVERAGE(B6:B24)</f>
-        <v>1297.1578947368421</v>
+        <f t="shared" ref="B25:H25" si="0">AVERAGE(B6:B24)</f>
+        <v>1092.3684210526317</v>
       </c>
       <c r="C25">
-        <f>AVERAGE(C6:C24)</f>
-        <v>694</v>
+        <f t="shared" si="0"/>
+        <v>547.42105263157896</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:K25" si="0">AVERAGE(D6:D24)</f>
-        <v>518.63157894736844</v>
+        <f t="shared" si="0"/>
+        <v>346.4736842105263</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>406.4736842105263</v>
+        <v>280.36842105263156</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>355.10526315789474</v>
+        <v>286.05263157894734</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>343.42105263157896</v>
+        <v>285.15789473684208</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>354.84210526315792</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25">
-        <f>AVERAGE(L6:L24)</f>
-        <v>336.73684210526318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>281.05263157894734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +7278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -3072,706 +7286,2814 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29">
-        <v>16</v>
-      </c>
-      <c r="K29">
-        <v>32</v>
-      </c>
-      <c r="L29">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="C30">
-        <v>585</v>
+        <v>403</v>
       </c>
       <c r="D30">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="E30">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="F30">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="G30">
-        <v>395</v>
-      </c>
-      <c r="I30">
-        <v>360</v>
-      </c>
-      <c r="L30">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H30">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="C31">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="D31">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="E31">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F31">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="G31">
-        <v>353</v>
-      </c>
-      <c r="I31">
-        <v>313</v>
-      </c>
-      <c r="L31">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H31">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C32">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="D32">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="E32">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="F32">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G32">
-        <v>316</v>
-      </c>
-      <c r="I32">
-        <v>311</v>
-      </c>
-      <c r="L32">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H32">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="C33">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="D33">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E33">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F33">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="G33">
-        <v>317</v>
-      </c>
-      <c r="I33">
-        <v>306</v>
-      </c>
-      <c r="L33">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H33">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="C34">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="D34">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="E34">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="F34">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G34">
-        <v>302</v>
-      </c>
-      <c r="I34">
-        <v>315</v>
-      </c>
-      <c r="L34">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H34">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C35">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="D35">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E35">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="F35">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G35">
-        <v>310</v>
-      </c>
-      <c r="I35">
-        <v>307</v>
-      </c>
-      <c r="L35">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="H35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
       <c r="B36">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="C36">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="D36">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E36">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F36">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G36">
-        <v>300</v>
-      </c>
-      <c r="I36">
-        <v>308</v>
-      </c>
-      <c r="L36">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H36">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="C37">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D37">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="E37">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F37">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="G37">
-        <v>297</v>
-      </c>
-      <c r="I37">
-        <v>315</v>
-      </c>
-      <c r="L37">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="H37">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
       <c r="B38">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="C38">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D38">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="E38">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="F38">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G38">
-        <v>300</v>
-      </c>
-      <c r="I38">
-        <v>308</v>
-      </c>
-      <c r="L38">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H38">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="C39">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D39">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="E39">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="F39">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G39">
-        <v>296</v>
-      </c>
-      <c r="I39">
-        <v>300</v>
-      </c>
-      <c r="L39">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H39">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
       <c r="B40">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="C40">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D40">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E40">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="F40">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G40">
-        <v>299</v>
-      </c>
-      <c r="I40">
-        <v>317</v>
-      </c>
-      <c r="L40">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H40">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C41">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="D41">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="E41">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="F41">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G41">
-        <v>298</v>
-      </c>
-      <c r="I41">
-        <v>310</v>
-      </c>
-      <c r="L41">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H41">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
       <c r="B42">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C42">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="D42">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E42">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="F42">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="G42">
-        <v>301</v>
-      </c>
-      <c r="I42">
-        <v>304</v>
-      </c>
-      <c r="L42">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="C43">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="D43">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E43">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F43">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="G43">
-        <v>299</v>
-      </c>
-      <c r="I43">
-        <v>311</v>
-      </c>
-      <c r="L43">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H43">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C44">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D44">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E44">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="F44">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="G44">
-        <v>297</v>
-      </c>
-      <c r="I44">
-        <v>312</v>
-      </c>
-      <c r="L44">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H44">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16</v>
       </c>
       <c r="B45">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="C45">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="D45">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="E45">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="F45">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G45">
-        <v>297</v>
-      </c>
-      <c r="I45">
-        <v>308</v>
-      </c>
-      <c r="L45">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="H45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
       <c r="B46">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C46">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="D46">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="E46">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="F46">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G46">
-        <v>298</v>
-      </c>
-      <c r="I46">
-        <v>307</v>
-      </c>
-      <c r="L46">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H46">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18</v>
       </c>
       <c r="B47">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="C47">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="D47">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="E47">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="F47">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G47">
-        <v>305</v>
-      </c>
-      <c r="I47">
-        <v>314</v>
-      </c>
-      <c r="L47">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="H47">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
       <c r="B48">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="C48">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D48">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E48">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="F48">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G48">
-        <v>302</v>
-      </c>
-      <c r="I48">
-        <v>308</v>
-      </c>
-      <c r="L48">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H48">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
       <c r="B49">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C49">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D49">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E49">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="F49">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G49">
-        <v>306</v>
-      </c>
-      <c r="I49">
-        <v>310</v>
-      </c>
-      <c r="L49">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H49">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50">
         <f>AVERAGE(B31:B49)</f>
-        <v>361</v>
+        <v>312.15789473684208</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:L50" si="1">AVERAGE(C31:C49)</f>
-        <v>310.15789473684208</v>
+        <f t="shared" ref="C50:H50" si="1">AVERAGE(C31:C49)</f>
+        <v>261.68421052631578</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>295.68421052631578</v>
+        <v>257.84210526315792</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>306.68421052631578</v>
+        <v>261.5263157894737</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>293.21052631578948</v>
+        <v>263</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>304.89473684210526</v>
-      </c>
-      <c r="H50" t="e">
+        <v>266.89473684210526</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>309.68421052631578</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
-        <v>324.36842105263156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267.5263157894737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
       <c r="B53">
         <f>B25/B50</f>
-        <v>3.5932351654760168</v>
+        <v>3.4994098802900022</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:L53" si="2">C25/C50</f>
-        <v>2.2375699983030715</v>
+        <f t="shared" ref="C53:H53" si="2">C25/C50</f>
+        <v>2.0919147224456962</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>1.7540049839800642</v>
+        <v>1.3437436211471727</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>1.325381843143985</v>
+        <v>1.0720466894747434</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
-        <v>1.2110931610123856</v>
+        <v>1.0876525915549329</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1.1263593992749872</v>
-      </c>
-      <c r="H53" t="e">
+        <v>1.0684283178860186</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
-        <v>1.1458191706322232</v>
-      </c>
-      <c r="J53" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="2"/>
-        <v>1.0381307804640598</v>
+        <v>1.0505606925044264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:H58" si="3">C4</f>
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>46</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ref="A60:A78" si="4">A6</f>
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>A21</f>
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <f>AVERAGE(B60:B78)</f>
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <f>AVERAGE(C60:C78)</f>
+        <v>9.6315789473684212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:H83" si="5">C4</f>
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ref="A85:A104" si="6">A6</f>
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92">
+        <f>B79/B104</f>
+        <v>2.714285714285714</v>
+      </c>
+      <c r="L92">
+        <f>C79/C104</f>
+        <v>1.9062500000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="6"/>
+        <v>mean</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B85:B103)</f>
+        <v>6.2631578947368425</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(C85:C103)</f>
+        <v>5.0526315789473681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>2514</v>
+      </c>
+      <c r="C109">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>437</v>
+      </c>
+      <c r="C110">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>239</v>
+      </c>
+      <c r="C111">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>203</v>
+      </c>
+      <c r="C112">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>211</v>
+      </c>
+      <c r="C113">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>506</v>
+      </c>
+      <c r="C114">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>281</v>
+      </c>
+      <c r="C115">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>137</v>
+      </c>
+      <c r="C116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>193</v>
+      </c>
+      <c r="C117">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>96</v>
+      </c>
+      <c r="C118">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>235</v>
+      </c>
+      <c r="C119">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>115</v>
+      </c>
+      <c r="C120">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>107</v>
+      </c>
+      <c r="C121">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>92</v>
+      </c>
+      <c r="C122">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>207</v>
+      </c>
+      <c r="C123">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>108</v>
+      </c>
+      <c r="C124">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>110</v>
+      </c>
+      <c r="C125">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>95</v>
+      </c>
+      <c r="C126">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="C127">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>107</v>
+      </c>
+      <c r="C128">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <f>AVERAGE(B110:B128)</f>
+        <v>189.63157894736841</v>
+      </c>
+      <c r="C129">
+        <f>AVERAGE(C110:C128)</f>
+        <v>285.05263157894734</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>3296</v>
+      </c>
+      <c r="C134">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>218</v>
+      </c>
+      <c r="C135">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>252</v>
+      </c>
+      <c r="C136">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>335</v>
+      </c>
+      <c r="C137">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>318</v>
+      </c>
+      <c r="C138">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>290</v>
+      </c>
+      <c r="C139">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>270</v>
+      </c>
+      <c r="C140">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>191</v>
+      </c>
+      <c r="C141">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>288</v>
+      </c>
+      <c r="C142">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>242</v>
+      </c>
+      <c r="C143">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>215</v>
+      </c>
+      <c r="C144">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>258</v>
+      </c>
+      <c r="C145">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>104</v>
+      </c>
+      <c r="C146">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>117</v>
+      </c>
+      <c r="C147">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>126</v>
+      </c>
+      <c r="C148">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>239</v>
+      </c>
+      <c r="C149">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>87</v>
+      </c>
+      <c r="C150">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>105</v>
+      </c>
+      <c r="C151">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>95</v>
+      </c>
+      <c r="C152">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>202</v>
+      </c>
+      <c r="C153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <f>AVERAGE(B135:B153)</f>
+        <v>208</v>
+      </c>
+      <c r="C154">
+        <f>AVERAGE(C135:C153)</f>
+        <v>340.05263157894734</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <f t="shared" ref="B159:H159" si="7">B4</f>
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>1987</v>
+      </c>
+      <c r="C160">
+        <v>1046</v>
+      </c>
+      <c r="D160">
+        <v>626</v>
+      </c>
+      <c r="E160">
+        <v>467</v>
+      </c>
+      <c r="F160">
+        <v>520</v>
+      </c>
+      <c r="G160">
+        <v>495</v>
+      </c>
+      <c r="H160">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ref="A161:A180" si="8">A6</f>
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>1461</v>
+      </c>
+      <c r="C161">
+        <v>746</v>
+      </c>
+      <c r="D161">
+        <v>462</v>
+      </c>
+      <c r="E161">
+        <v>367</v>
+      </c>
+      <c r="F161">
+        <v>385</v>
+      </c>
+      <c r="G161">
+        <v>391</v>
+      </c>
+      <c r="H161">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>1458</v>
+      </c>
+      <c r="C162">
+        <v>716</v>
+      </c>
+      <c r="D162">
+        <v>451</v>
+      </c>
+      <c r="E162">
+        <v>365</v>
+      </c>
+      <c r="F162">
+        <v>391</v>
+      </c>
+      <c r="G162">
+        <v>378</v>
+      </c>
+      <c r="H162">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>1453</v>
+      </c>
+      <c r="C163">
+        <v>731</v>
+      </c>
+      <c r="D163">
+        <v>494</v>
+      </c>
+      <c r="E163">
+        <v>365</v>
+      </c>
+      <c r="F163">
+        <v>370</v>
+      </c>
+      <c r="G163">
+        <v>375</v>
+      </c>
+      <c r="H163">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>1422</v>
+      </c>
+      <c r="C164">
+        <v>715</v>
+      </c>
+      <c r="D164">
+        <v>506</v>
+      </c>
+      <c r="E164">
+        <v>365</v>
+      </c>
+      <c r="F164">
+        <v>412</v>
+      </c>
+      <c r="G164">
+        <v>373</v>
+      </c>
+      <c r="H164">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>1420</v>
+      </c>
+      <c r="C165">
+        <v>707</v>
+      </c>
+      <c r="D165">
+        <v>470</v>
+      </c>
+      <c r="E165">
+        <v>377</v>
+      </c>
+      <c r="F165">
+        <v>399</v>
+      </c>
+      <c r="G165">
+        <v>372</v>
+      </c>
+      <c r="H165">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B166">
+        <v>1418</v>
+      </c>
+      <c r="C166">
+        <v>708</v>
+      </c>
+      <c r="D166">
+        <v>445</v>
+      </c>
+      <c r="E166">
+        <v>387</v>
+      </c>
+      <c r="F166">
+        <v>398</v>
+      </c>
+      <c r="G166">
+        <v>399</v>
+      </c>
+      <c r="H166">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>1422</v>
+      </c>
+      <c r="C167">
+        <v>706</v>
+      </c>
+      <c r="D167">
+        <v>451</v>
+      </c>
+      <c r="E167">
+        <v>391</v>
+      </c>
+      <c r="F167">
+        <v>415</v>
+      </c>
+      <c r="G167">
+        <v>418</v>
+      </c>
+      <c r="H167">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>1423</v>
+      </c>
+      <c r="C168">
+        <v>716</v>
+      </c>
+      <c r="D168">
+        <v>453</v>
+      </c>
+      <c r="E168">
+        <v>429</v>
+      </c>
+      <c r="F168">
+        <v>397</v>
+      </c>
+      <c r="G168">
+        <v>414</v>
+      </c>
+      <c r="H168">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B169">
+        <v>1416</v>
+      </c>
+      <c r="C169">
+        <v>736</v>
+      </c>
+      <c r="D169">
+        <v>474</v>
+      </c>
+      <c r="E169">
+        <v>424</v>
+      </c>
+      <c r="F169">
+        <v>381</v>
+      </c>
+      <c r="G169">
+        <v>383</v>
+      </c>
+      <c r="H169">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B170">
+        <v>1418</v>
+      </c>
+      <c r="C170">
+        <v>733</v>
+      </c>
+      <c r="D170">
+        <v>534</v>
+      </c>
+      <c r="E170">
+        <v>372</v>
+      </c>
+      <c r="F170">
+        <v>379</v>
+      </c>
+      <c r="G170">
+        <v>378</v>
+      </c>
+      <c r="H170">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B171">
+        <v>1417</v>
+      </c>
+      <c r="C171">
+        <v>723</v>
+      </c>
+      <c r="D171">
+        <v>403</v>
+      </c>
+      <c r="E171">
+        <v>360</v>
+      </c>
+      <c r="F171">
+        <v>394</v>
+      </c>
+      <c r="G171">
+        <v>381</v>
+      </c>
+      <c r="H171">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>1463</v>
+      </c>
+      <c r="C172">
+        <v>732</v>
+      </c>
+      <c r="D172">
+        <v>425</v>
+      </c>
+      <c r="E172">
+        <v>363</v>
+      </c>
+      <c r="F172">
+        <v>389</v>
+      </c>
+      <c r="G172">
+        <v>382</v>
+      </c>
+      <c r="H172">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B173">
+        <v>1442</v>
+      </c>
+      <c r="C173">
+        <v>726</v>
+      </c>
+      <c r="D173">
+        <v>402</v>
+      </c>
+      <c r="E173">
+        <v>366</v>
+      </c>
+      <c r="F173">
+        <v>382</v>
+      </c>
+      <c r="G173">
+        <v>370</v>
+      </c>
+      <c r="H173">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>1459</v>
+      </c>
+      <c r="C174">
+        <v>722</v>
+      </c>
+      <c r="D174">
+        <v>419</v>
+      </c>
+      <c r="E174">
+        <v>366</v>
+      </c>
+      <c r="F174">
+        <v>395</v>
+      </c>
+      <c r="G174">
+        <v>374</v>
+      </c>
+      <c r="H174">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <v>1436</v>
+      </c>
+      <c r="C175">
+        <v>707</v>
+      </c>
+      <c r="D175">
+        <v>418</v>
+      </c>
+      <c r="E175">
+        <v>367</v>
+      </c>
+      <c r="F175">
+        <v>391</v>
+      </c>
+      <c r="G175">
+        <v>374</v>
+      </c>
+      <c r="H175">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B176">
+        <v>1421</v>
+      </c>
+      <c r="C176">
+        <v>730</v>
+      </c>
+      <c r="D176">
+        <v>458</v>
+      </c>
+      <c r="E176">
+        <v>370</v>
+      </c>
+      <c r="F176">
+        <v>385</v>
+      </c>
+      <c r="G176">
+        <v>374</v>
+      </c>
+      <c r="H176">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B177">
+        <v>1428</v>
+      </c>
+      <c r="C177">
+        <v>727</v>
+      </c>
+      <c r="D177">
+        <v>424</v>
+      </c>
+      <c r="E177">
+        <v>365</v>
+      </c>
+      <c r="F177">
+        <v>391</v>
+      </c>
+      <c r="G177">
+        <v>374</v>
+      </c>
+      <c r="H177">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f>A23</f>
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>1420</v>
+      </c>
+      <c r="C178">
+        <v>728</v>
+      </c>
+      <c r="D178">
+        <v>410</v>
+      </c>
+      <c r="E178">
+        <v>366</v>
+      </c>
+      <c r="F178">
+        <v>385</v>
+      </c>
+      <c r="G178">
+        <v>376</v>
+      </c>
+      <c r="H178">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B179">
+        <v>1420</v>
+      </c>
+      <c r="C179">
+        <v>728</v>
+      </c>
+      <c r="D179">
+        <v>411</v>
+      </c>
+      <c r="E179">
+        <v>363</v>
+      </c>
+      <c r="F179">
+        <v>384</v>
+      </c>
+      <c r="G179">
+        <v>380</v>
+      </c>
+      <c r="H179">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="8"/>
+        <v>mean</v>
+      </c>
+      <c r="B180">
+        <f>AVERAGE(B161:B179)</f>
+        <v>1432.4736842105262</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ref="C180:H180" si="9">AVERAGE(C161:C179)</f>
+        <v>723</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="9"/>
+        <v>447.89473684210526</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="9"/>
+        <v>375.15789473684208</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="9"/>
+        <v>390.68421052631578</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="9"/>
+        <v>382.42105263157896</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="9"/>
+        <v>377.84210526315792</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:H184" si="10">C4</f>
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>911</v>
+      </c>
+      <c r="C185">
+        <v>525</v>
+      </c>
+      <c r="D185">
+        <v>383</v>
+      </c>
+      <c r="E185">
+        <v>372</v>
+      </c>
+      <c r="F185">
+        <v>375</v>
+      </c>
+      <c r="G185">
+        <v>420</v>
+      </c>
+      <c r="H185">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" ref="A186:A205" si="11">A6</f>
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>444</v>
+      </c>
+      <c r="C186">
+        <v>342</v>
+      </c>
+      <c r="D186">
+        <v>338</v>
+      </c>
+      <c r="E186">
+        <v>351</v>
+      </c>
+      <c r="F186">
+        <v>343</v>
+      </c>
+      <c r="G186">
+        <v>346</v>
+      </c>
+      <c r="H186">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>397</v>
+      </c>
+      <c r="C187">
+        <v>333</v>
+      </c>
+      <c r="D187">
+        <v>335</v>
+      </c>
+      <c r="E187">
+        <v>352</v>
+      </c>
+      <c r="F187">
+        <v>344</v>
+      </c>
+      <c r="G187">
+        <v>352</v>
+      </c>
+      <c r="H187">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>396</v>
+      </c>
+      <c r="C188">
+        <v>342</v>
+      </c>
+      <c r="D188">
+        <v>333</v>
+      </c>
+      <c r="E188">
+        <v>345</v>
+      </c>
+      <c r="F188">
+        <v>341</v>
+      </c>
+      <c r="G188">
+        <v>346</v>
+      </c>
+      <c r="H188">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <v>401</v>
+      </c>
+      <c r="C189">
+        <v>347</v>
+      </c>
+      <c r="D189">
+        <v>335</v>
+      </c>
+      <c r="E189">
+        <v>344</v>
+      </c>
+      <c r="F189">
+        <v>344</v>
+      </c>
+      <c r="G189">
+        <v>356</v>
+      </c>
+      <c r="H189">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>421</v>
+      </c>
+      <c r="C190">
+        <v>352</v>
+      </c>
+      <c r="D190">
+        <v>335</v>
+      </c>
+      <c r="E190">
+        <v>349</v>
+      </c>
+      <c r="F190">
+        <v>342</v>
+      </c>
+      <c r="G190">
+        <v>361</v>
+      </c>
+      <c r="H190">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>389</v>
+      </c>
+      <c r="C191">
+        <v>350</v>
+      </c>
+      <c r="D191">
+        <v>349</v>
+      </c>
+      <c r="E191">
+        <v>348</v>
+      </c>
+      <c r="F191">
+        <v>343</v>
+      </c>
+      <c r="G191">
+        <v>357</v>
+      </c>
+      <c r="H191">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>392</v>
+      </c>
+      <c r="C192">
+        <v>366</v>
+      </c>
+      <c r="D192">
+        <v>338</v>
+      </c>
+      <c r="E192">
+        <v>345</v>
+      </c>
+      <c r="F192">
+        <v>343</v>
+      </c>
+      <c r="G192">
+        <v>369</v>
+      </c>
+      <c r="H192">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="B193">
+        <v>378</v>
+      </c>
+      <c r="C193">
+        <v>344</v>
+      </c>
+      <c r="D193">
+        <v>362</v>
+      </c>
+      <c r="E193">
+        <v>354</v>
+      </c>
+      <c r="F193">
+        <v>341</v>
+      </c>
+      <c r="G193">
+        <v>370</v>
+      </c>
+      <c r="H193">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="B194">
+        <v>376</v>
+      </c>
+      <c r="C194">
+        <v>342</v>
+      </c>
+      <c r="D194">
+        <v>349</v>
+      </c>
+      <c r="E194">
+        <v>385</v>
+      </c>
+      <c r="F194">
+        <v>343</v>
+      </c>
+      <c r="G194">
+        <v>353</v>
+      </c>
+      <c r="H194">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="B195">
+        <v>411</v>
+      </c>
+      <c r="C195">
+        <v>333</v>
+      </c>
+      <c r="D195">
+        <v>337</v>
+      </c>
+      <c r="E195">
+        <v>365</v>
+      </c>
+      <c r="F195">
+        <v>342</v>
+      </c>
+      <c r="G195">
+        <v>347</v>
+      </c>
+      <c r="H195">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="B196">
+        <v>375</v>
+      </c>
+      <c r="C196">
+        <v>345</v>
+      </c>
+      <c r="D196">
+        <v>334</v>
+      </c>
+      <c r="E196">
+        <v>348</v>
+      </c>
+      <c r="F196">
+        <v>341</v>
+      </c>
+      <c r="G196">
+        <v>344</v>
+      </c>
+      <c r="H196">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="B197">
+        <v>381</v>
+      </c>
+      <c r="C197">
+        <v>341</v>
+      </c>
+      <c r="D197">
+        <v>338</v>
+      </c>
+      <c r="E197">
+        <v>344</v>
+      </c>
+      <c r="F197">
+        <v>343</v>
+      </c>
+      <c r="G197">
+        <v>343</v>
+      </c>
+      <c r="H197">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="B198">
+        <v>390</v>
+      </c>
+      <c r="C198">
+        <v>343</v>
+      </c>
+      <c r="D198">
+        <v>334</v>
+      </c>
+      <c r="E198">
+        <v>345</v>
+      </c>
+      <c r="F198">
+        <v>341</v>
+      </c>
+      <c r="G198">
+        <v>344</v>
+      </c>
+      <c r="H198">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="B199">
+        <v>436</v>
+      </c>
+      <c r="C199">
+        <v>334</v>
+      </c>
+      <c r="D199">
+        <v>333</v>
+      </c>
+      <c r="E199">
+        <v>352</v>
+      </c>
+      <c r="F199">
+        <v>343</v>
+      </c>
+      <c r="G199">
+        <v>347</v>
+      </c>
+      <c r="H199">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="B200">
+        <v>414</v>
+      </c>
+      <c r="C200">
+        <v>334</v>
+      </c>
+      <c r="D200">
+        <v>332</v>
+      </c>
+      <c r="E200">
+        <v>345</v>
+      </c>
+      <c r="F200">
+        <v>342</v>
+      </c>
+      <c r="G200">
+        <v>344</v>
+      </c>
+      <c r="H200">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="B201">
+        <v>440</v>
+      </c>
+      <c r="C201">
+        <v>335</v>
+      </c>
+      <c r="D201">
+        <v>333</v>
+      </c>
+      <c r="E201">
+        <v>344</v>
+      </c>
+      <c r="F201">
+        <v>342</v>
+      </c>
+      <c r="G201">
+        <v>344</v>
+      </c>
+      <c r="H201">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="B202">
+        <v>430</v>
+      </c>
+      <c r="C202">
+        <v>343</v>
+      </c>
+      <c r="D202">
+        <v>332</v>
+      </c>
+      <c r="E202">
+        <v>344</v>
+      </c>
+      <c r="F202">
+        <v>343</v>
+      </c>
+      <c r="G202">
+        <v>344</v>
+      </c>
+      <c r="H202">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="B203">
+        <v>385</v>
+      </c>
+      <c r="C203">
+        <v>333</v>
+      </c>
+      <c r="D203">
+        <v>333</v>
+      </c>
+      <c r="E203">
+        <v>344</v>
+      </c>
+      <c r="F203">
+        <v>343</v>
+      </c>
+      <c r="G203">
+        <v>345</v>
+      </c>
+      <c r="H203">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="B204">
+        <v>409</v>
+      </c>
+      <c r="C204">
+        <v>334</v>
+      </c>
+      <c r="D204">
+        <v>338</v>
+      </c>
+      <c r="E204">
+        <v>345</v>
+      </c>
+      <c r="F204">
+        <v>344</v>
+      </c>
+      <c r="G204">
+        <v>345</v>
+      </c>
+      <c r="H204">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="11"/>
+        <v>mean</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ref="B205:G205" si="12">AVERAGE(B186:B204)</f>
+        <v>403.42105263157896</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="12"/>
+        <v>341.73684210526318</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="12"/>
+        <v>337.78947368421052</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="12"/>
+        <v>349.94736842105266</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="12"/>
+        <v>342.5263157894737</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="12"/>
+        <v>350.36842105263156</v>
+      </c>
+      <c r="H205">
+        <f>AVERAGE(H186:H204)</f>
+        <v>350.21052631578948</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208">
+        <f>B180/B205</f>
+        <v>3.5508153946510106</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ref="C208:H208" si="13">C180/C205</f>
+        <v>2.1156630217156938</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="13"/>
+        <v>1.3259582424431287</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="13"/>
+        <v>1.0720409084072791</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="13"/>
+        <v>1.1405961893054701</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="13"/>
+        <v>1.0914826498422714</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="13"/>
+        <v>1.0788999098286745</v>
       </c>
     </row>
   </sheetData>
